--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,20 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -464,23 +469,20 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2021-08-29</t>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
         </is>
       </c>
     </row>
@@ -488,233 +490,20 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2021-06-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>travel</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>80</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>422</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2021-06-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>cloth</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2021-08-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6</v>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>80</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2021-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>entertain</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F3" t="n">
         <v>20</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>transport</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>20</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>entertain</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>30</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2021-09-03</t>
         </is>
       </c>
     </row>

--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,15 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>type</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0.1</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1.1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
@@ -469,20 +454,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2021-09-03</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-08-29</t>
         </is>
       </c>
     </row>
@@ -490,20 +472,197 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>422</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cloth</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-08-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>80</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>100</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>entertain</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="C9" t="n">
         <v>20</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2021-09-03</t>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>20</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>20</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2021-09-04</t>
         </is>
       </c>
     </row>

--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,213 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-08-29</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>food</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2021-06-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>travel</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2021-08-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>422</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2021-06-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>cloth</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2021-08-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>80</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>100</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2021-09-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>entertain</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>20</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>20</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>transport</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>20</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>entertain</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2021-08-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>others</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2021-09-04</t>
+          <t>2021-09-27</t>
         </is>
       </c>
     </row>

--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,205 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2021-08-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>travel</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>80</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>422</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2021-06-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cloth</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2021-08-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2021-09-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
+        <v>20</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2021-09-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2021-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>clothing</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2021-09-27</t>
+      <c r="C12" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2021-08-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
         </is>
       </c>
     </row>

--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,6 +658,42 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,11 +460,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-08-29</t>
+          <t>2021-06-14</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>travel</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-08-20</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>other</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2021-06-14</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>cloth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>422</v>
+        <v>68.7</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-08-21</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>cloth</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>68.7</v>
+        <v>300</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-08-21</t>
+          <t>2021-09-02</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-08-30</t>
         </is>
       </c>
     </row>
@@ -562,9 +562,13 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -578,7 +582,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>entertain</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -586,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-09-04</t>
         </is>
       </c>
     </row>
@@ -596,7 +600,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -604,7 +608,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2021-08-28</t>
         </is>
       </c>
     </row>
@@ -614,7 +618,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -632,15 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2021-08-30</t>
         </is>
       </c>
     </row>
@@ -648,13 +652,17 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr"/>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
       <c r="C13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-08-31</t>
         </is>
       </c>
     </row>
@@ -664,11 +672,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -682,13 +690,193 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D15" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>25</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>25</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>

--- a/main/user_expense.xlsx
+++ b/main/user_expense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-09-07</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>travel</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-08-20</t>
+          <t>2021-09-07</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>transport</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>422</v>
+        <v>15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-06-14</t>
+          <t>2021-09-07</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cloth</t>
+          <t>others</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>68.7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-08-21</t>
+          <t>2021-09-07</t>
         </is>
       </c>
     </row>
@@ -532,11 +532,11 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>300</v>
+        <v>8</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-09-02</t>
+          <t>2021-09-07</t>
         </is>
       </c>
     </row>
@@ -546,29 +546,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>others</t>
+          <t>entertain</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-09-07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>entertain</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -590,49 +590,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-09-04</t>
+          <t>2021-08-30</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2021-08-31</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>clothing</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-08-28</t>
+          <t>2021-09-01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -640,53 +640,53 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-09-02</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>entertain</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-08-31</t>
+          <t>2021-09-03</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-09-04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-09-05</t>
         </is>
       </c>
     </row>
@@ -708,15 +708,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>entertain</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20</v>
+        <v>3021</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-01-01</t>
         </is>
       </c>
     </row>
@@ -726,15 +726,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>entertain</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>2049</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-02-02</t>
         </is>
       </c>
     </row>
@@ -744,15 +744,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>30</v>
+        <v>1780</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-03-03</t>
         </is>
       </c>
     </row>
@@ -762,15 +762,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>30</v>
+        <v>1780</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-03-03</t>
         </is>
       </c>
     </row>
@@ -780,15 +780,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>30</v>
+        <v>1780</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-03-03</t>
         </is>
       </c>
     </row>
@@ -798,15 +798,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>30</v>
+        <v>1892</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-04-04</t>
         </is>
       </c>
     </row>
@@ -816,15 +816,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>transport</t>
+          <t>entertain</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>30</v>
+        <v>2590</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-05-05</t>
         </is>
       </c>
     </row>
@@ -834,15 +834,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>entertain</t>
+          <t>food</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>25</v>
+        <v>3329</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-06-06</t>
         </is>
       </c>
     </row>
@@ -852,15 +852,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>food</t>
+          <t>clothing</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>2108</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-08-30</t>
+          <t>2021-07-07</t>
         </is>
       </c>
     </row>
@@ -870,13 +870,175 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>clothing</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>4210</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2021-08-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>21</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>entertain</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>transport</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>18</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>30</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>others</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
+        <v>18</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2021-09-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>others</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2021-09-07</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>food</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>30</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>30</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>2021-08-30</t>
         </is>
